--- a/classTester.xlsx
+++ b/classTester.xlsx
@@ -413,14 +413,187 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="B4:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>In Time</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Lunch/Break</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Out Time</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Additional Hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>